--- a/KD_experiment/params.xlsx
+++ b/KD_experiment/params.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440EC295-7294-4FBB-B25E-A2EDD193091B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCE01AA-91F8-45AF-BD1D-8009446A95EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>numNets</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,23 +58,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>git push</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merge_to_all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Experiment #1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git push</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merge_to_all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Experiment #1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,7 +451,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -465,7 +461,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -503,10 +499,10 @@
         <v>7</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -593,31 +589,49 @@
         <v>10</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="H5" s="4">
+        <v>44363</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="B6" s="1">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">

--- a/KD_experiment/params.xlsx
+++ b/KD_experiment/params.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCE01AA-91F8-45AF-BD1D-8009446A95EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FB5CB4-02D3-4DA8-9910-63868CEDAE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
   <si>
     <t>numNets</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +67,6 @@
   </si>
   <si>
     <t>Experiment #1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,7 +447,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -621,16 +617,16 @@
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="H6" s="4">
+        <v>44364</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">

--- a/KD_experiment/params.xlsx
+++ b/KD_experiment/params.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FB5CB4-02D3-4DA8-9910-63868CEDAE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE95AD76-997A-48BF-9153-740FC4FCD2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>numNets</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,14 @@
   </si>
   <si>
     <t>Experiment #1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-17  8:05:00 AM ~ (16:30)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -149,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -163,6 +171,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,12 +458,14 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="10" width="12.25" customWidth="1"/>
+    <col min="1" max="7" width="12.25" customWidth="1"/>
+    <col min="8" max="8" width="31.625" customWidth="1"/>
+    <col min="9" max="10" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -633,15 +646,33 @@
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="B7" s="1">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>100</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">

--- a/KD_experiment/params.xlsx
+++ b/KD_experiment/params.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE95AD76-997A-48BF-9153-740FC4FCD2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3065C2-CAF4-48B1-9120-DA3063EF2DAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>numNets</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,7 +74,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2021-06-17  8:05:00 AM ~ (16:30)</t>
+    <t>2021-06-17  8:05:00 AM ~ 16:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -157,23 +161,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,34 +486,34 @@
       <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -536,10 +539,10 @@
       <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>44362</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -568,10 +571,10 @@
       <c r="G4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>44363</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -600,7 +603,7 @@
       <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>44363</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -632,7 +635,7 @@
       <c r="G6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>44364</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -662,13 +665,13 @@
         <v>20</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>12</v>
@@ -678,197 +681,209 @@
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="B8" s="1">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>100</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/KD_experiment/params.xlsx
+++ b/KD_experiment/params.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3065C2-CAF4-48B1-9120-DA3063EF2DAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2986977-10B8-4AE1-9986-6B01880D1BCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>numNets</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,15 +70,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2021-06-17  8:05:00 AM ~ 16:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2021-06-17  8:05:00 AM ~ 16:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LearningR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-17 4:44 ~ 25:00 예정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -161,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -177,6 +185,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,20 +469,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="12.25" customWidth="1"/>
-    <col min="8" max="8" width="31.625" customWidth="1"/>
-    <col min="9" max="10" width="12.25" customWidth="1"/>
+    <col min="1" max="8" width="12.25" customWidth="1"/>
+    <col min="9" max="9" width="31.625" customWidth="1"/>
+    <col min="10" max="11" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
@@ -484,8 +495,9 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -505,19 +517,22 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -536,20 +551,23 @@
       <c r="F3" s="1">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="G3" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="3">
         <v>44362</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -568,20 +586,23 @@
       <c r="F4" s="1">
         <v>15</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="G4" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="3">
         <v>44363</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -600,20 +621,23 @@
       <c r="F5" s="1">
         <v>10</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="G5" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="3">
         <v>44363</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="J5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -632,20 +656,23 @@
       <c r="F6" s="1">
         <v>5</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="G6" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="3">
         <v>44364</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="J6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -664,20 +691,23 @@
       <c r="F7" s="1">
         <v>20</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>8</v>
+      <c r="G7" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -696,14 +726,23 @@
       <c r="F8" s="1">
         <v>15</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -716,8 +755,9 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -730,8 +770,9 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -744,8 +785,9 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -758,8 +800,9 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -772,8 +815,9 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -786,8 +830,9 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -800,8 +845,9 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -814,8 +860,9 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -828,8 +875,9 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -842,8 +890,9 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -856,8 +905,9 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -870,8 +920,9 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -884,10 +935,11 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KD_experiment/params.xlsx
+++ b/KD_experiment/params.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2986977-10B8-4AE1-9986-6B01880D1BCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6BDF45-F740-4494-8CE3-A305CDD382A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>numNets</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,7 +86,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2021-06-17 4:44 ~ 25:00 예정</t>
+    <t>2021-06-17 4:44 ~ done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-18 9:41 ~ 18:00 예정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -183,11 +187,11 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -472,7 +476,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -483,19 +487,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -551,7 +555,7 @@
       <c r="F3" s="1">
         <v>20</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>0.1</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -586,7 +590,7 @@
       <c r="F4" s="1">
         <v>15</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>0.1</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -621,7 +625,7 @@
       <c r="F5" s="1">
         <v>10</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>0.1</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -656,7 +660,7 @@
       <c r="F6" s="1">
         <v>5</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>0.1</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -691,7 +695,7 @@
       <c r="F7" s="1">
         <v>20</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>0.1</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -726,17 +730,17 @@
       <c r="F8" s="1">
         <v>15</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>0.1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>14</v>
@@ -746,16 +750,36 @@
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="B9" s="1">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>100</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>10</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">

--- a/KD_experiment/params.xlsx
+++ b/KD_experiment/params.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6BDF45-F740-4494-8CE3-A305CDD382A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C430DAFD-F626-4916-8794-F19F4C54BAE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
   <si>
     <t>numNets</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,19 +78,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>LearningR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-17 4:44 ~ done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-18 9:41 ~ 18:00 예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LearningR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-06-17 4:44 ~ done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-06-18 9:41 ~ 18:00 예정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -123,7 +123,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +133,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -173,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -188,6 +194,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -476,7 +485,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -487,19 +496,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -521,7 +530,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>6</v>
@@ -712,7 +721,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="6">
         <v>5</v>
       </c>
       <c r="B8" s="1">
@@ -724,10 +733,10 @@
       <c r="D8" s="1">
         <v>100</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="6">
         <v>0.1</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="6">
         <v>15</v>
       </c>
       <c r="G8" s="5">
@@ -737,13 +746,13 @@
         <v>8</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -772,7 +781,7 @@
         <v>13</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>13</v>
@@ -785,31 +794,67 @@
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="B10" s="1">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>100</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>20</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="B11" s="1">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>100</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>20</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">

--- a/KD_experiment/params.xlsx
+++ b/KD_experiment/params.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C430DAFD-F626-4916-8794-F19F4C54BAE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1819B8B5-F2CD-4132-8E5E-5BD981B81BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
   <si>
     <t>numNets</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,11 +86,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2021-06-18 9:41 ~ 18:00 예정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-18 9:41 ~ done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>running</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-18 23:12 ~ 7:30 예상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,20 +490,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="12.25" customWidth="1"/>
-    <col min="9" max="9" width="31.625" customWidth="1"/>
-    <col min="10" max="11" width="12.25" customWidth="1"/>
+    <col min="1" max="9" width="12.25" customWidth="1"/>
+    <col min="10" max="10" width="31.625" customWidth="1"/>
+    <col min="11" max="12" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
@@ -509,8 +517,9 @@
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -533,19 +542,22 @@
         <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -567,20 +579,21 @@
       <c r="G3" s="5">
         <v>0.1</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="H3" s="5"/>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="3">
         <v>44362</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -602,20 +615,21 @@
       <c r="G4" s="5">
         <v>0.1</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="H4" s="5"/>
+      <c r="I4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="3">
         <v>44363</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -637,20 +651,21 @@
       <c r="G5" s="5">
         <v>0.1</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="H5" s="5"/>
+      <c r="I5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="3">
         <v>44363</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="K5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -672,20 +687,21 @@
       <c r="G6" s="5">
         <v>0.1</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="H6" s="5"/>
+      <c r="I6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="3">
         <v>44364</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="K6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -707,20 +723,21 @@
       <c r="G7" s="5">
         <v>0.1</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="4" t="s">
+      <c r="H7" s="5"/>
+      <c r="I7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="K7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -742,20 +759,21 @@
       <c r="G8" s="5">
         <v>0.1</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H8" s="5"/>
       <c r="I8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="K8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -777,20 +795,21 @@
       <c r="G9" s="5">
         <v>0.1</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="5"/>
+      <c r="I9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -812,18 +831,23 @@
       <c r="G10" s="5">
         <v>0.5</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="1"/>
+      <c r="H10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="J10" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -845,18 +869,19 @@
       <c r="G11" s="5">
         <v>0.1</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -870,8 +895,9 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -885,8 +911,9 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -900,8 +927,9 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -915,8 +943,9 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -930,8 +959,9 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -945,8 +975,9 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -960,8 +991,9 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -975,8 +1007,9 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -990,8 +1023,9 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1005,10 +1039,11 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KD_experiment/params.xlsx
+++ b/KD_experiment/params.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1819B8B5-F2CD-4132-8E5E-5BD981B81BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053668E7-69E9-4CA3-B45A-C4A962E89AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
   <si>
     <t>numNets</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,7 +98,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2021-06-18 23:12 ~ 7:30 예상</t>
+    <t>2021-06-18 23:12 ~ done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-19 9:21 ~ 17:50 예상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,7 +497,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -831,17 +835,15 @@
       <c r="G10" s="5">
         <v>0.5</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="H10" s="5"/>
       <c r="I10" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>16</v>
@@ -869,11 +871,15 @@
       <c r="G11" s="5">
         <v>0.1</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="I11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K11" s="1" t="s">
         <v>16</v>
       </c>
@@ -885,10 +891,18 @@
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>100</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.01</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>

--- a/KD_experiment/params.xlsx
+++ b/KD_experiment/params.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053668E7-69E9-4CA3-B45A-C4A962E89AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213B5B97-5D98-41D3-9CA7-39FD116C443C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
   <si>
     <t>numNets</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -497,7 +497,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -810,7 +810,7 @@
         <v>8</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -846,7 +846,7 @@
         <v>8</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -901,12 +901,18 @@
         <v>100</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="F12" s="1">
+        <v>20</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.1</v>
+      </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>

--- a/KD_experiment/params.xlsx
+++ b/KD_experiment/params.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213B5B97-5D98-41D3-9CA7-39FD116C443C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76104A9-1A60-45B5-B244-1587892A5D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
   <si>
     <t>numNets</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2021-06-18 9:41 ~ done</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,7 +98,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2021-06-19 9:21 ~ 17:50 예상</t>
+    <t>2021-06-19 9:21 ~ done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-20 1:15 ~ 9:30 예상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,7 +497,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -546,7 +546,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>6</v>
@@ -804,7 +804,7 @@
         <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>8</v>
@@ -840,7 +840,7 @@
         <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>8</v>
@@ -871,20 +871,18 @@
       <c r="G11" s="5">
         <v>0.1</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="H11" s="5"/>
       <c r="I11" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -904,18 +902,26 @@
         <v>0.05</v>
       </c>
       <c r="F12" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G12" s="5">
         <v>0.1</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">

--- a/KD_experiment/params.xlsx
+++ b/KD_experiment/params.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76104A9-1A60-45B5-B244-1587892A5D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7015BE-293F-4D30-B408-1B40C95FF3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
   <si>
     <t>numNets</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,7 +102,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2021-06-20 1:15 ~ 9:30 예상</t>
+    <t>2021-06-20 1:15 ~ done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-20 11:00 ~ 19:30 예상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,7 +501,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -886,7 +890,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="A12" s="6">
         <v>9</v>
       </c>
       <c r="B12" s="1">
@@ -898,26 +902,24 @@
       <c r="D12" s="1">
         <v>100</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="6">
         <v>0.05</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="6">
         <v>15</v>
       </c>
       <c r="G12" s="5">
         <v>0.1</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>13</v>
@@ -927,17 +929,39 @@
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>100</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F13" s="1">
+        <v>20</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">

--- a/KD_experiment/params.xlsx
+++ b/KD_experiment/params.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7015BE-293F-4D30-B408-1B40C95FF3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDAB57E-1B98-47ED-8299-6C488C0AF015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
   <si>
     <t>numNets</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -501,7 +501,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -967,17 +967,35 @@
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="B14" s="1">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>100</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F14" s="1">
+        <v>15</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.1</v>
+      </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">

--- a/KD_experiment/params.xlsx
+++ b/KD_experiment/params.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDAB57E-1B98-47ED-8299-6C488C0AF015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854D7FAC-A3B2-411C-A9D0-F039C50A7B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
   <si>
     <t>numNets</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,7 +106,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2021-06-20 11:00 ~ 19:30 예상</t>
+    <t>2021-06-20 11:00 ~ done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-20  7:37 ~ </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,7 +505,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -922,11 +926,11 @@
         <v>8</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13" s="6">
         <v>10</v>
       </c>
       <c r="B13" s="1">
@@ -938,29 +942,27 @@
       <c r="D13" s="1">
         <v>100</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="6">
         <v>0.01</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="6">
         <v>20</v>
       </c>
       <c r="G13" s="5">
         <v>0.1</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -985,11 +987,15 @@
       <c r="G14" s="5">
         <v>0.1</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="1"/>
+      <c r="J14" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="K14" s="1" t="s">
         <v>13</v>
       </c>

--- a/KD_experiment/params.xlsx
+++ b/KD_experiment/params.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854D7FAC-A3B2-411C-A9D0-F039C50A7B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2240DC63-44B6-486E-9735-8B4ECA3643FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -505,7 +505,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/KD_experiment/params.xlsx
+++ b/KD_experiment/params.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2240DC63-44B6-486E-9735-8B4ECA3643FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF118BDF-9E74-481A-8911-B1B5733F0154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="23">
   <si>
     <t>numNets</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,7 +110,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">2021-06-20  7:37 ~ </t>
+    <t xml:space="preserve">2021-06-20  19:37 ~ </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,7 +505,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -987,9 +987,7 @@
       <c r="G14" s="5">
         <v>0.1</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1007,17 +1005,39 @@
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="B15" s="1">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>100</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F15" s="1">
+        <v>25</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="4">
+        <v>44367.897222222222</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">

--- a/KD_experiment/params.xlsx
+++ b/KD_experiment/params.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF118BDF-9E74-481A-8911-B1B5733F0154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F214C83D-0A86-4A54-84BF-C06AC864A3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="23">
   <si>
     <t>numNets</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,7 +143,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,6 +159,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -199,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -221,6 +227,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,7 +514,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1002,7 +1011,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15" s="8">
         <v>12</v>
       </c>
       <c r="B15" s="1">
@@ -1014,10 +1023,10 @@
       <c r="D15" s="1">
         <v>100</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="8">
         <v>0.01</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="8">
         <v>25</v>
       </c>
       <c r="G15" s="5">
@@ -1043,17 +1052,35 @@
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="B16" s="1">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>100</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F16" s="1">
+        <v>30</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.1</v>
+      </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">

--- a/KD_experiment/params.xlsx
+++ b/KD_experiment/params.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F214C83D-0A86-4A54-84BF-C06AC864A3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36EE07E-ECD2-4E42-8BC1-98E44FBEF6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="25">
   <si>
     <t>numNets</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,14 @@
   </si>
   <si>
     <t xml:space="preserve">2021-06-20  19:37 ~ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-20  9:32:00 PM~ done </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-21 7:05 ~ 15:30 예정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -225,11 +233,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,7 +522,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -525,20 +533,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="A1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1011,7 +1019,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>12</v>
       </c>
       <c r="B15" s="1">
@@ -1023,26 +1031,24 @@
       <c r="D15" s="1">
         <v>100</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>0.01</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>25</v>
       </c>
       <c r="G15" s="5">
         <v>0.1</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="4">
-        <v>44367.897222222222</v>
+        <v>8</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>13</v>
@@ -1070,11 +1076,15 @@
       <c r="G16" s="5">
         <v>0.1</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="1"/>
+      <c r="J16" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="K16" s="1" t="s">
         <v>13</v>
       </c>

--- a/KD_experiment/params.xlsx
+++ b/KD_experiment/params.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36EE07E-ECD2-4E42-8BC1-98E44FBEF6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F833CB-F5D5-4391-A1AE-8DFFE8723D80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="26">
   <si>
     <t>numNets</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,10 @@
   </si>
   <si>
     <t>2021-06-21 7:05 ~ 15:30 예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,7 +526,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1051,7 +1055,7 @@
         <v>8</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1096,17 +1100,35 @@
       <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="B17" s="1">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>100</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F17" s="1">
+        <v>25</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.1</v>
+      </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1">

--- a/KD_experiment/params.xlsx
+++ b/KD_experiment/params.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F833CB-F5D5-4391-A1AE-8DFFE8723D80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C5A770-4CB3-44B4-ABFE-6D8B7A884D89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="28">
   <si>
     <t>numNets</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,11 +118,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2021-06-21 7:05 ~ 15:30 예정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-21 7:05 ~ done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-21 16:15 ~ 24:40 예상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1080,20 +1088,18 @@
       <c r="G16" s="5">
         <v>0.1</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -1110,7 +1116,7 @@
         <v>100</v>
       </c>
       <c r="E17" s="1">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F17" s="1">
         <v>25</v>
@@ -1118,16 +1124,20 @@
       <c r="G17" s="5">
         <v>0.1</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="I17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="K17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">

--- a/KD_experiment/params.xlsx
+++ b/KD_experiment/params.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C5A770-4CB3-44B4-ABFE-6D8B7A884D89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D66955-77CF-4DF6-975E-F92E8741306A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,7 +163,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +185,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -250,6 +256,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,7 +543,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -869,7 +878,7 @@
       <c r="F10" s="1">
         <v>20</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="9">
         <v>0.5</v>
       </c>
       <c r="H10" s="5"/>

--- a/KD_experiment/params.xlsx
+++ b/KD_experiment/params.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D66955-77CF-4DF6-975E-F92E8741306A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F68F22E-A32F-431E-B779-C906ED64E6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="27">
   <si>
     <t>numNets</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,19 +118,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2021-06-21 7:05 ~ done</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-06-21 16:15 ~ 24:40 예상</t>
+    <t>2021-06-21 16:15 ~ done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-22 00:55 ~ 9:30 예정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -254,11 +250,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,7 +539,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -554,20 +550,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="A1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -878,7 +874,7 @@
       <c r="F10" s="1">
         <v>20</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>0.5</v>
       </c>
       <c r="H10" s="5"/>
@@ -1102,7 +1098,7 @@
         <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>8</v>
@@ -1133,37 +1129,57 @@
       <c r="G17" s="5">
         <v>0.1</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="B18" s="1">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>100</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F18" s="1">
+        <v>30</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1">

--- a/KD_experiment/params.xlsx
+++ b/KD_experiment/params.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F68F22E-A32F-431E-B779-C906ED64E6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0F11E1-7691-4BDC-8E08-A7B742135DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="27">
   <si>
     <t>numNets</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,7 +126,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2021-06-22 00:55 ~ 9:30 예정</t>
+    <t>2021-06-22 00:55 ~ done</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,7 +539,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1165,20 +1165,18 @@
       <c r="G18" s="5">
         <v>0.1</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
